--- a/data/anl_training_set_updated_20190215.xlsx
+++ b/data/anl_training_set_updated_20190215.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/Wageningen_UR/github/adenylate_forming_phylo/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/Wageningen_UR/github/mibig_training_set_build_test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AFFE9A-8113-4A4C-A128-C7B945C4FA35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC908483-E38F-DD4E-B84A-1A73B278AF33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="2600" windowWidth="28680" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25240" yWindow="2700" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anl_training_set_updated_201902" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9217" uniqueCount="2915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9217" uniqueCount="2916">
   <si>
     <t>entry</t>
   </si>
@@ -8765,6 +8765,9 @@
   </si>
   <si>
     <t>short_chan</t>
+  </si>
+  <si>
+    <t>fAT</t>
   </si>
 </sst>
 </file>
@@ -9616,8 +9619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="G366" sqref="G366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20730,7 +20733,7 @@
         <v>1726</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>1727</v>
+        <v>2915</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>27</v>
